--- a/Backend-Task-page/reports/attendance_report_2025_10.xlsx
+++ b/Backend-Task-page/reports/attendance_report_2025_10.xlsx
@@ -14,12 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="3">
   <si>
-    <t>barath</t>
+    <t>jai</t>
   </si>
   <si>
     <t>Absent</t>
+  </si>
+  <si>
+    <t>Login: 04:59
+Logout: -</t>
   </si>
 </sst>
 </file>
@@ -528,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="s">
         <v>1</v>
